--- a/secure/26P-Victoria.xlsx
+++ b/secure/26P-Victoria.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Victoria-416567</t>
+    <t>26P-Victoria-857297</t>
   </si>
   <si>
-    <t>26P-Victoria-592167</t>
+    <t>26P-Victoria-839070</t>
   </si>
   <si>
-    <t>26P-Victoria-745916</t>
+    <t>26P-Victoria-832886</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Ff712cba"/>
+        <fgColor rgb="Fbcf469a"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WK503"/>
+  <dimension ref="A1:PP503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -637,14 +637,11 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:371" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>-0.88</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="NG32" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -712,11 +709,14 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:408" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>-0.832</v>
       </c>
       <c r="M44" s="4"/>
+      <c r="OR44" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -1396,11 +1396,14 @@
       </c>
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:432" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>-0.376</v>
       </c>
       <c r="M158" s="4"/>
+      <c r="PP158" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
@@ -2038,11 +2041,14 @@
       </c>
       <c r="M264" s="4"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>0.052</v>
       </c>
       <c r="M265" s="4"/>
+      <c r="AA265" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
@@ -2092,14 +2098,11 @@
       </c>
       <c r="M273" s="4"/>
     </row>
-    <row r="274" spans="1:609" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>0.088</v>
       </c>
       <c r="M274" s="4"/>
-      <c r="WK274" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
@@ -2719,14 +2722,11 @@
       </c>
       <c r="M377" s="4"/>
     </row>
-    <row r="378" spans="1:396" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>0.504</v>
       </c>
       <c r="M378" s="4"/>
-      <c r="OF378" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
